--- a/load_data_33.xlsx
+++ b/load_data_33.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef-my.sharepoint.com/personal/rubi_rana_sintef_no/Documents/collab_codes/Codes/Load Flow With Excel Input/ieee_33_bus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakul\Documents\GitHub\power_grid_DSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC104823E9D970825BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B44BF7-D56F-4456-9039-B8F0BA9E04E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2C6ACE-240A-4021-8838-659DE876E771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="770" yWindow="770" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>P (kW)</t>
+  </si>
+  <si>
+    <t>Q (kW)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,10 +66,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,342 +357,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="B3" s="1">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>90</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="H4" s="2"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>120</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="1">
         <v>80</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5">
+      <c r="H5" s="2"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
+      <c r="H6" s="2"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
         <v>20</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="H7" s="2"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>200</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="H8" s="2"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>200</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9">
+      <c r="H9" s="2"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10">
+      <c r="H10" s="2"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="H11" s="2"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>45</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12">
+      <c r="H12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
         <v>35</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>60</v>
-      </c>
-      <c r="B13">
+      <c r="H13" s="2"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1">
         <v>35</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="H14" s="2"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>120</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="1">
         <v>80</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>60</v>
-      </c>
-      <c r="B15">
+      <c r="H15" s="2"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>60</v>
-      </c>
-      <c r="B16">
+      <c r="H16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1">
         <v>20</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>60</v>
-      </c>
-      <c r="B17">
+      <c r="H17" s="2"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="H18" s="2"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>90</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="1">
         <v>40</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="H19" s="2"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>90</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="1">
         <v>40</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="H20" s="2"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>90</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="1">
         <v>40</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="H21" s="2"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>90</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="1">
         <v>40</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="H22" s="2"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>90</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="1">
         <v>40</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="H23" s="2"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>90</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="1">
         <v>50</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="H24" s="2"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>420</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="1">
         <v>200</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="H25" s="2"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>420</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="1">
         <v>200</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>60</v>
-      </c>
-      <c r="B26">
+      <c r="H26" s="2"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>60</v>
-      </c>
-      <c r="B27">
+      <c r="H27" s="2"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1">
         <v>25</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>60</v>
-      </c>
-      <c r="B28">
+      <c r="H28" s="2"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1">
         <v>20</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="H29" s="2"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>120</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="1">
         <v>70</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="H30" s="2"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>200</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="1">
         <v>600</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="H31" s="2"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>150</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="1">
         <v>70</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="H32" s="2"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>210</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="1">
         <v>100</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>60</v>
-      </c>
-      <c r="B33">
+      <c r="H33" s="2"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1">
         <v>40</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="J33" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
